--- a/result/NCDC_weather_data/stations_imputed/59287199999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59287199999.xlsx
@@ -565,7 +565,9 @@
       <c r="M2" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>10.46638412345679</v>
+      </c>
       <c r="O2" t="n">
         <v>125.24</v>
       </c>
